--- a/AI_vs_DQD_Distributions.xlsx
+++ b/AI_vs_DQD_Distributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwkju\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwkju\Desktop\DQD_GitHub_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EF39005-AF76-411B-944F-B031AB3FC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C59D11-EB5E-4C7D-A934-327BBB5BA83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1D7CDDDD-6FE9-4E9C-B789-7E487D82B72F}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Month 1:</t>
   </si>
@@ -94,13 +92,90 @@
   <si>
     <t>*******************WRONG TOTAL (156 vs 240) **************************</t>
   </si>
+  <si>
+    <t>Prompts provided to the LLM for each choice:</t>
+  </si>
+  <si>
+    <t>Flat Line:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribute {qty entered by user} items across {number of months entered by user} months </t>
+  </si>
+  <si>
+    <t>Distribute {qty entered by user} items across {number of months entered by user} months</t>
+  </si>
+  <si>
+    <t>using a flat line so that each month has either approximately or exactly the same number</t>
+  </si>
+  <si>
+    <t>of items as all other months. All deliveries must be whole numbers and the total needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to add to {qty entered by user}. Do not include any text describing the result, respond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using an ascending line so that each month has the same or more items than the month before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it. Try to get the line as close to a 45 degree angle as possible. All monthly quantities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">must be positive integers and the total needs to add to {qty entered by user}.  Do not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">include any text describing the result, respond with only an array containing the quantity </t>
+  </si>
+  <si>
+    <t>for each month like this example [3, 5, 2].</t>
+  </si>
+  <si>
+    <t>Ramp Up:</t>
+  </si>
+  <si>
+    <t>with only an array containing the quantity for each month like this example [3, 5, 2].</t>
+  </si>
+  <si>
+    <t>Ramp Down:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using a descending line so that each month has the same or fewer items than the month before </t>
+  </si>
+  <si>
+    <t>Bell Curve:</t>
+  </si>
+  <si>
+    <t>Distribute {qty entered by user} items across {number of months entered by user} months using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bell curve so that the month or months in the middle have the most items and the months on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ends have the fewest items. Try to make the bell curve not too steep or too flat. All </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthly quantities must be whole numbers and the total needs to add to {qty entered by user}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not include any text describing the result, respond with only an array containing the </t>
+  </si>
+  <si>
+    <t>quantity for each month like this example [3, 5, 2].</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,8 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4213,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9714A80-442D-432E-B670-B1010F9EEB20}">
-  <dimension ref="C9:E85"/>
+  <dimension ref="C9:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4610,7 +4687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" t="s">
         <v>8</v>
       </c>
@@ -4618,7 +4695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" t="s">
         <v>12</v>
       </c>
@@ -4626,7 +4703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" t="s">
         <v>14</v>
       </c>
@@ -4642,13 +4719,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85">
         <f>SUM(D73:D84)</f>
         <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
